--- a/doc.xlsx
+++ b/doc.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\straw\Desktop\AIS\ProjectPool 1\Maze\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2009E13D-5DE6-4242-8ADA-C65A25A88D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Ajouté par</t>
   </si>
@@ -35,31 +44,76 @@
   </si>
   <si>
     <t>https://runestone.academy/runestone/books/published/pythonds/Recursion/ExploringaMaze.html</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Mod%C3%A9lisation_math%C3%A9matique_de_labyrinthe</t>
+  </si>
+  <si>
+    <t>définition d'un labyrinthe parfait</t>
+  </si>
+  <si>
+    <t>Modélisation mathématique de labyrinthe</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Maze_generation_algorithm</t>
+  </si>
+  <si>
+    <t>http://weblog.jamisbuck.org/2011/2/7/maze-generation-algorithm-recap</t>
+  </si>
+  <si>
+    <t>Maze Generation: Algorithm Recap</t>
+  </si>
+  <si>
+    <t>Maze generation algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaw </t>
+  </si>
+  <si>
+    <t>https://weblog.jamisbuck.org/2010/12/27/maze-generation-recursive-backtracking</t>
+  </si>
+  <si>
+    <t>Maze Generation: Recursive Backtracking</t>
+  </si>
+  <si>
+    <t>comprendre recursive backtracking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -67,7 +121,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -76,39 +130,66 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -298,56 +379,116 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="18.86"/>
-    <col customWidth="1" min="3" max="3" width="34.71"/>
-    <col customWidth="1" min="4" max="4" width="84.29"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" customWidth="1"/>
+    <col min="3" max="3" width="34.7265625" customWidth="1"/>
+    <col min="4" max="4" width="84.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{64D39AC6-8386-4F2D-BCE3-0EA22B00E37C}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{94A60B56-50D9-4655-A1B3-BDC44E9BDC79}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{63E0BEAE-8C89-4ADA-B3D1-7C47A49EAB89}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{D3F2A01D-DAE9-41D5-BD37-47C2A475C72A}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc.xlsx
+++ b/doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\straw\Desktop\AIS\ProjectPool 1\Maze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2009E13D-5DE6-4242-8ADA-C65A25A88D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFBA34B-383F-43BB-8C98-3BADAFFBA53A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Ajouté par</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>comprendre recursive backtracking</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=elMXlO28Q1U&amp;t=265s</t>
+  </si>
+  <si>
+    <t>Maze Generation Algorithm - Recursive Backtracker</t>
   </si>
 </sst>
 </file>
@@ -389,16 +395,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" customWidth="1"/>
+    <col min="2" max="2" width="43.453125" customWidth="1"/>
     <col min="3" max="3" width="34.7265625" customWidth="1"/>
     <col min="4" max="4" width="84.26953125" customWidth="1"/>
   </cols>
@@ -481,6 +487,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -488,6 +508,7 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{94A60B56-50D9-4655-A1B3-BDC44E9BDC79}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{63E0BEAE-8C89-4ADA-B3D1-7C47A49EAB89}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{D3F2A01D-DAE9-41D5-BD37-47C2A475C72A}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{6935ACF6-CB47-481E-8259-A04464879C35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">Ajouté par</t>
   </si>
@@ -44,6 +44,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://runestone.academy/runestone/books/published/pythonds/Recursion/ExploringaMaze.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheikh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make labyrinthe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=XwVd9hHg87E&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cheikh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wikipedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Maze_generation_algorithm</t>
   </si>
 </sst>
 </file>
@@ -53,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -98,6 +119,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -148,7 +175,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -162,6 +189,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -242,10 +273,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -284,10 +315,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://runestone.academy/runestone/books/published/pythonds/Recursion/ExploringaMaze.html"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://www.youtube.com/watch?v=XwVd9hHg87E&amp;feature=youtu.be"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://en.wikipedia.org/wiki/Maze_generation_algorithm"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\straw\Desktop\AIS\ProjectPool 1\Maze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA9C2D6-C55F-43BF-89DA-BC1D8F93C792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46543FE-A0E7-4718-892E-CF564DC05C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Ajouté par</t>
   </si>
@@ -106,13 +106,28 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=elMXlO28Q1U&amp;t=265s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=71UQH7Pr9kU&amp;t=1s</t>
+  </si>
+  <si>
+    <t>Kruskal's algorithm in 2 minutes — Review and example</t>
+  </si>
+  <si>
+    <t>comprendre Kruskal</t>
+  </si>
+  <si>
+    <t>http://weblog.jamisbuck.org/2011/1/3/maze-generation-kruskal-s-algorithm</t>
+  </si>
+  <si>
+    <t>Maze Generation: Kruskal's Algorithm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -144,6 +159,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -168,17 +190,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,15 +584,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="45.6328125" customWidth="1"/>
     <col min="3" max="3" width="34.7265625" customWidth="1"/>
     <col min="4" max="4" width="84.26953125" customWidth="1"/>
     <col min="5" max="1025" width="14.453125" customWidth="1"/>
@@ -693,11 +719,41 @@
         <v>26</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{DDAA929C-00A9-4597-BFE5-0D57518D09B4}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{2CF9137C-9586-4EF6-914D-DB441670DDB2}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\straw\Desktop\AIS\ProjectPool 1\Maze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46543FE-A0E7-4718-892E-CF564DC05C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4B8397-5969-4DE5-9352-2093424460AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Ajouté par</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Maze Generation: Kruskal's Algorithm</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yo7sddEVONg</t>
+  </si>
+  <si>
+    <t>Kruskal's Algorithm: Minimum Spanning Tree (MST)</t>
+  </si>
+  <si>
+    <t>comprendre Kruskal's algorithm</t>
   </si>
 </sst>
 </file>
@@ -584,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -747,6 +756,20 @@
         <v>30</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -754,6 +777,7 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="D10" r:id="rId4" xr:uid="{DDAA929C-00A9-4597-BFE5-0D57518D09B4}"/>
     <hyperlink ref="D11" r:id="rId5" xr:uid="{2CF9137C-9586-4EF6-914D-DB441670DDB2}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{FC4CA4F5-CF5A-41B8-834C-2254E2760E40}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
